--- a/Cos Department Data.xlsx
+++ b/Cos Department Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptaylor/Documents/advisor-search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE66F5D2-A883-9949-A87B-4008A5608F34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE5851D-9FC2-9E45-BEAB-F4E5EFC393F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,19 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="244">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>areas of research</t>
-  </si>
-  <si>
-    <t>short bio</t>
-  </si>
-  <si>
-    <t>contact info (email all @cs.princeton.edu)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="246">
   <si>
     <t>Research Projects</t>
   </si>
@@ -253,9 +241,6 @@
     <t>Sanjeev Arora</t>
   </si>
   <si>
-    <t>Machine Learning, Natural Language Processing, Theory, Uses of randomness in complexity theory and algorithms; Efficient algorithms for finding approximate solutions to NP-hard problems (or proving that they don't exist); Cryptography.</t>
-  </si>
-  <si>
     <t>Sanjeev Arora is the Charles C. Fitzmorris Professor in Computer Science. He joined Princeton in 1994 after earning his doctorate from the University of California, Berkeley. He was a visiting professor at the Weizmann Institute in 2007, a visiting researcher at Microsoft in 2006-07, and a visiting associate professor at Berkeley during 2001-02. Professor Arora’s honors include the D.R. Fulkerson Prize in Discrete Mathematics (awarded by the American Mathematical Society and Math Optimization Society) in 2012, the ACM-Infosys Foundation Award in the Computing Sciences in the same year, the Best paper award from IEEE Foundations of Computer Science in 2010, and the EATCS-SIGACT Gödel Prize (cowinner), also in 2010. He was appointed a Simons Foundation investigator in 2012, and was elected an ACM fellow in 2009. Professor Arora was the founding director and lead PI at the Center for Computational Intractability in 2008, a project funded partly by an NSF Expeditions in Computing grant.</t>
   </si>
   <si>
@@ -477,16 +462,10 @@
     <t>Jaswinder Singh</t>
   </si>
   <si>
-    <t>Parallel computing systems and applications: parallel applications and their implications for software and architectural design; system software and programming environments for multiprocessors. Special interest in applications of computing in computational biology, especially protein structure determination and simulating the immune system.</t>
-  </si>
-  <si>
     <t>Jaswinder Pal Singh joined the department in 1995 as an assistant professor, became an associate professor in 1999 and was appointed a full professor in 2005. From 2000 to 2005 he was co-founder and chief technical officer of FirstRain Inc., a business analytics company, where he led the development of novel and award-winning technologies and products for precise information extraction from Web pages in the presence of changes, for topic-specific crawling and information discovery, for high-relevance search, and for large-scale content-based publish-subscribe. Professor Singh received his bachelor’s degree from Princeton in 1987 and earned master’s and doctoral degrees in electrical engineering from Stanford in 1989 and 1993, respectively.  Since 2010, he has directed the Princeton CTO Program, which trains students to become highly effective chief technology officers by encouraging understanding not only of technology but also of business and society. Among his honors are the Presidential Early Career Award for Scientists and Engineers (PECASE), awarded by the National Science Foundation, and a Sloan research fellowship, both in 1997.  He is a member of the Association for Computing Machinery and the Institute of Electrical and Electronics Engineers Inc.</t>
   </si>
   <si>
     <t>Mona Singh</t>
-  </si>
-  <si>
-    <t>Computational molecular biology, as well as its interface with machine learning and algorithms.</t>
   </si>
   <si>
     <t xml:space="preserve">Mona Singh is a professor of computer science and the Lewis Sigler Institute for Integrative Genomics. She joined Princeton in 1999 as an assistant professor, became an associate professor in 2006 and was named a full professor in 2011.
@@ -508,9 +487,6 @@
     <t>Olga Troyanskaya</t>
   </si>
   <si>
-    <t>Bioinformatics; analysis of large-scale biological data sets (genomics, gene expression, proteomics, biological networks); algorithms for integration of data from multiple data sources; visualization of biological data; machine learning methods in bioinformatics.</t>
-  </si>
-  <si>
     <t>Olga G. Troyanskaya is a professor of computer science and the Lewis Sigler Institute for Integrative Genomics. She joined Princeton in 2003 as an assistant professor and became a full professor in 2013. She also is a consultant for the Simons Center for Data Analysis, in New York, and a visiting associate professor, Tromso University, Norway. Professor Troyanskaya received her doctorate in biomedical informatics from Stanford in 2003 and earned a bachelor’s in computer science and biology from the University of Richmond. Her professional service includes co-chair of an NHGRI workshop, “Integrating Functional Data for Connecting Genotype to Phenotype,” in 2012 and chair for the Late Breaking Research Track, Intelligent Systems for Molecular Biology (ISMB), also in 2012. She served on the steering committee for the ISMB/ECCB 2011 conference. Among her honors and awards are the 2014 Ira Herskowitz Award from the Genetic Society of America, the 2011 Overton Prize, from the International Society of Computational Biology, and the 2011 Blavatnik Award For Young Scientists (Finalist Award).</t>
   </si>
   <si>
@@ -530,9 +506,6 @@
   </si>
   <si>
     <t>Kevin Wayne</t>
-  </si>
-  <si>
-    <t>ACM Distinguished Educator, 2014.</t>
   </si>
   <si>
     <t>Kevin Wayne, the Phillip Y. Goldman Senior Lecturer in Computer Science, has been teaching at Princeton since 1998. He has codeveloped (with professor Robert Sedgewick) two of the most popular courses at Princeton: COS 126 (General Computer Science) and COS 226 (Algorithms and Data Structures), and two of the most popular MOOCs on the Coursera platform: Algorithms Part I and II. He has been named a Distinguished Educator by the ACM and has won several teaching awards at Princeton, including the SEAS Distinguished Teacher Award and the Phi Beta Kappa Teaching Award. He is a graduate of Yale University and received his master's and doctorate from Cornell University. His research interests include the design, analysis, and implementation of algorithms, especially for graphs and discrete optimization.</t>
@@ -669,9 +642,6 @@
   </si>
   <si>
     <t>Alan Kaplan</t>
-  </si>
-  <si>
-    <t>Mobile Software, Middleware and Protocols; Communication and Networking for Consumer Applications and Services, Software Engineering.</t>
   </si>
   <si>
     <t>Alan Kaplan joined the Department of Computer Science as a Lecturer in September 2014.   His career spans academic research to industrial R&amp;D to technology startup/entrepreneurship and he has over twenty years experience leading research and product development involving mobile software.
@@ -768,6 +738,42 @@
   </si>
   <si>
     <t>ysinger</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>bio</t>
+  </si>
+  <si>
+    <t>areas</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Mobile Software, Middleware and Protocols, Communication and Networking for Consumer Applications and Services, Software Engineering.</t>
+  </si>
+  <si>
+    <t>Algorithms, Theory, graph theory</t>
+  </si>
+  <si>
+    <t>Parallel computing systems and applications; system software and programming environments for multiprocessors, computational biology</t>
+  </si>
+  <si>
+    <t>llp</t>
+  </si>
+  <si>
+    <t>mzhandry</t>
+  </si>
+  <si>
+    <t>Computational molecular biology,  machine learning, algorithms.</t>
+  </si>
+  <si>
+    <t>Bioinformatics; analysis of large-scale biological data sets; algorithms for integration of data from multiple data sources; visualization of biological data; machine learning methods in bioinformatics.</t>
+  </si>
+  <si>
+    <t>Machine Learning, Natural Language Processing, Theory, Uses of randomness in complexity theory and algorithms; NP-hard problems; Cryptography.</t>
   </si>
 </sst>
 </file>
@@ -782,27 +788,26 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFE8E6E3"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF616161"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -813,6 +818,7 @@
       <sz val="11"/>
       <color rgb="FF616161"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -825,6 +831,12 @@
       <sz val="11"/>
       <color rgb="FF8A4600"/>
       <name val="Raleway"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -853,26 +865,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1093,8 +1109,8 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1107,862 +1123,868 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="13">
+      <c r="A19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15">
+      <c r="A20" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="C31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="D31" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="E31" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A39" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A40" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A41" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A43" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C43" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D43" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A44" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="13">
+      <c r="A46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15">
+      <c r="A47" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15">
+      <c r="A48" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="C48" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A49" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A50" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A53" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15">
+      <c r="A55" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A58" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A59" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="D59" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="6" t="s">
+    </row>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A60" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="B60" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A17" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A18" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="13">
-      <c r="A19" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15">
-      <c r="A20" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A22" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A24" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A25" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A26" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A29" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A31" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A33" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A34" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A35" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A36" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A37" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A38" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A39" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A40" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A41" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A42" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A43" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A44" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A45" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="13">
-      <c r="A46" s="2" t="s">
+      <c r="C60" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="D60" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15">
-      <c r="A47" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15">
-      <c r="A48" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A49" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A50" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A51" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A52" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A53" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A54" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15">
-      <c r="A55" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A56" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A58" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A59" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A60" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="13"/>

--- a/Cos Department Data.xlsx
+++ b/Cos Department Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptaylor/Documents/advisor-search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE5851D-9FC2-9E45-BEAB-F4E5EFC393F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6328C7-5418-D24A-B841-E50936E8561E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1110,7 +1110,7 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
